--- a/dailyupdate4.xlsx
+++ b/dailyupdate4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>March</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>create basic routing</t>
+  </si>
+  <si>
+    <t>Databinding ngFor,styleManagement</t>
+  </si>
+  <si>
+    <t>Modules &amp; Services</t>
+  </si>
+  <si>
+    <t>not completed</t>
   </si>
 </sst>
 </file>
@@ -106,10 +115,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,29 +399,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -455,7 +464,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>44260</v>
       </c>
       <c r="C4" t="s">
@@ -466,6 +475,40 @@
       </c>
       <c r="E4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dailyupdate4.xlsx
+++ b/dailyupdate4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>March</t>
   </si>
@@ -69,6 +69,36 @@
   </si>
   <si>
     <t>not completed</t>
+  </si>
+  <si>
+    <t>RestAppi calls</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>setting up Mock Data using JSON Server,installing Bootstrap in our application</t>
+  </si>
+  <si>
+    <t>create e-commerce website</t>
+  </si>
+  <si>
+    <t>design webpage using bootstrap</t>
+  </si>
+  <si>
+    <t>installing bootstrap in our application,Creating feature Module</t>
+  </si>
+  <si>
+    <t>how to create header,sidebar,footer</t>
+  </si>
+  <si>
+    <t>how to display particular product,and also how to display product list</t>
+  </si>
+  <si>
+    <t>how to do route</t>
+  </si>
+  <si>
+    <t>routing feature module</t>
   </si>
 </sst>
 </file>
@@ -399,16 +429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
@@ -511,6 +541,224 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44267</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44269</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44271</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44272</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44273</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
